--- a/craw_data/Pin/SNA Data set/EdgeP.xlsx
+++ b/craw_data/Pin/SNA Data set/EdgeP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/104364412_student_swin_edu_au/Documents/Desktop/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/104364412_student_swin_edu_au/Documents/Desktop/Design-Innovation-Project/craw_data/Pin/SNA Data set/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="781" documentId="11_F25DC773A252ABDACC104844895B659E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E180000D-0E9E-455D-9DAF-85426897632E}"/>
+  <xr:revisionPtr revIDLastSave="866" documentId="11_F25DC773A252ABDACC104844895B659E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BDA6873-B70B-4223-B072-6FA723E08C00}"/>
   <bookViews>
-    <workbookView xWindow="11484" yWindow="0" windowWidth="11652" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edges" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="120">
   <si>
     <t>Availability</t>
   </si>
@@ -321,12 +321,6 @@
     <t>The organisation invest in geothermal projects in Australia.</t>
   </si>
   <si>
-    <t>Public opinion strongly supports the adoption and expansion of solar energy in the country.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>The government give subsidies to wind energy project</t>
   </si>
   <si>
@@ -346,6 +340,51 @@
   </si>
   <si>
     <t>The government give subsidies to nuclear power project</t>
+  </si>
+  <si>
+    <t>Supports</t>
+  </si>
+  <si>
+    <t>Opposes</t>
+  </si>
+  <si>
+    <t>Public opinion in China strongly opposes nuclear power project.</t>
+  </si>
+  <si>
+    <t>Public opinion in China strongly opposes wind energy project.</t>
+  </si>
+  <si>
+    <t>Public opinion in China strongly opposes solar energy project, with concerns reflected in the majority of comments.</t>
+  </si>
+  <si>
+    <t>Public opinion in Japan strongly opposes solar energy project.</t>
+  </si>
+  <si>
+    <t>Public opinion in Japan opposes biomass project.</t>
+  </si>
+  <si>
+    <t>Public opinion in Japan opposes hydropower project.</t>
+  </si>
+  <si>
+    <t>Public opinion  in Japan supports geothermal energy project.</t>
+  </si>
+  <si>
+    <t>Public opinion in Japan strongly opposes nuclear power project.</t>
+  </si>
+  <si>
+    <t>Public opinion in Australia strongly supports solar energy project, reflecting broad approval.</t>
+  </si>
+  <si>
+    <t>Public opinion in Australia mostly opposes wind energy project</t>
+  </si>
+  <si>
+    <t>Public opinion in Australia is divided but leans slightly toward opposition about hydro power project.</t>
+  </si>
+  <si>
+    <t>Public opinion in Australia opposes nuclear power project</t>
+  </si>
+  <si>
+    <t>Public opinion in Australia opposes biomass project</t>
   </si>
 </sst>
 </file>
@@ -673,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="D487" sqref="D487"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="D506" sqref="D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7329,54 +7368,66 @@
         <v>4</v>
       </c>
       <c r="C475" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D475" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B476">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C476" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D476" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B477">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C477" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D477" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B478">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C478" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="D478" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B479">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C479" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D479" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -7384,32 +7435,41 @@
         <v>232</v>
       </c>
       <c r="B480">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C480" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D480" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B481">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C481" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D481" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B482">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C482" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D482" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -7417,10 +7477,13 @@
         <v>233</v>
       </c>
       <c r="B483">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C483" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="D483" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -7428,10 +7491,13 @@
         <v>233</v>
       </c>
       <c r="B484">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C484" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D484" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -7439,10 +7505,13 @@
         <v>233</v>
       </c>
       <c r="B485">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C485" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D485" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -7450,76 +7519,97 @@
         <v>233</v>
       </c>
       <c r="B486">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C486" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D486" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B487">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C487" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D487" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="B488">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C488" t="s">
-        <v>99</v>
+        <v>13</v>
+      </c>
+      <c r="D488" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="B489">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C489" t="s">
+        <v>13</v>
+      </c>
+      <c r="D489" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="B490">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C490" t="s">
-        <v>99</v>
+        <v>13</v>
+      </c>
+      <c r="D490" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="B491">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C491" t="s">
-        <v>99</v>
+        <v>13</v>
+      </c>
+      <c r="D491" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="B492">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C492" t="s">
-        <v>99</v>
+        <v>13</v>
+      </c>
+      <c r="D492" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -7527,13 +7617,13 @@
         <v>11</v>
       </c>
       <c r="B493">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C493" t="s">
         <v>13</v>
       </c>
       <c r="D493" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -7541,83 +7631,83 @@
         <v>11</v>
       </c>
       <c r="B494">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C494" t="s">
         <v>13</v>
       </c>
       <c r="D494" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B495">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C495" t="s">
         <v>13</v>
       </c>
       <c r="D495" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B496">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C496" t="s">
         <v>13</v>
       </c>
       <c r="D496" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B497">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="C497" t="s">
         <v>13</v>
       </c>
       <c r="D497" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B498">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="C498" t="s">
         <v>13</v>
       </c>
       <c r="D498" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B499">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C499" t="s">
         <v>13</v>
       </c>
       <c r="D499" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -7625,153 +7715,83 @@
         <v>97</v>
       </c>
       <c r="B500">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C500" t="s">
         <v>13</v>
       </c>
       <c r="D500" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B501">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="C501" t="s">
         <v>13</v>
       </c>
       <c r="D501" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B502">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="C502" t="s">
         <v>13</v>
       </c>
       <c r="D502" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B503">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="C503" t="s">
         <v>13</v>
       </c>
       <c r="D503" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B504">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C504" t="s">
         <v>13</v>
       </c>
       <c r="D504" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B505">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="C505" t="s">
         <v>13</v>
       </c>
       <c r="D505" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A506">
-        <v>159</v>
-      </c>
-      <c r="B506">
-        <v>161</v>
-      </c>
-      <c r="C506" t="s">
-        <v>13</v>
-      </c>
-      <c r="D506" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A507">
-        <v>159</v>
-      </c>
-      <c r="B507">
-        <v>162</v>
-      </c>
-      <c r="C507" t="s">
-        <v>13</v>
-      </c>
-      <c r="D507" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A508">
-        <v>159</v>
-      </c>
-      <c r="B508">
-        <v>163</v>
-      </c>
-      <c r="C508" t="s">
-        <v>13</v>
-      </c>
-      <c r="D508" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A509">
-        <v>159</v>
-      </c>
-      <c r="B509">
-        <v>164</v>
-      </c>
-      <c r="C509" t="s">
-        <v>13</v>
-      </c>
-      <c r="D509" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A510">
-        <v>159</v>
-      </c>
-      <c r="B510">
-        <v>165</v>
-      </c>
-      <c r="C510" t="s">
-        <v>13</v>
-      </c>
-      <c r="D510" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
